--- a/ASX Work/ASX PLS.xlsx
+++ b/ASX Work/ASX PLS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megag/Desktop/Code/Financial Models/ASX Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB66E95-7969-AC47-82E5-D0D362075934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA705C5-C843-F749-B749-3009C88A3BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18980" xr2:uid="{3854C120-A5F0-D54D-A04A-BD2FE69F4071}"/>
+    <workbookView xWindow="27940" yWindow="3340" windowWidth="38400" windowHeight="21100" xr2:uid="{3854C120-A5F0-D54D-A04A-BD2FE69F4071}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Price</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>Looks like Korean issues putting downward pressure on the stock… Specifically with the building of the two new plants…</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>lepidolite discoveries in China have reduced the uptake of Lithium.</t>
+  </si>
+  <si>
+    <t>Although lepidolite is complex to break down into Lithium it may be preferred within China as it allows for self-reliance</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Daily Turnover</t>
   </si>
 </sst>
 </file>
@@ -75,8 +96,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -119,24 +140,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,14 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E4823-22C3-0747-9E8D-FA63E4F5AD32}">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -535,7 +561,7 @@
       </c>
       <c r="C5" s="2">
         <f>C4*C3</f>
-        <v>6956657400</v>
+        <v>6474811000</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -591,6 +617,54 @@
         <v>9</v>
       </c>
       <c r="C13" s="6"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <f>4309*1000000</f>
+        <v>4309000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <f>1065*1000000</f>
+        <v>1065000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <f>C15-C16/C4</f>
+        <v>4308999999.6463604</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7">
+        <f>63.369*1000000</f>
+        <v>63369000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8">
+        <f>C21/(6896000000)</f>
+        <v>9.189240139211137E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3C412-4234-7B4F-B7D0-062D3CDF672F}">
-  <dimension ref="B27"/>
+  <dimension ref="B27:B29"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A9" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,6 +686,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
